--- a/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
+++ b/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t xml:space="preserve">Bead on Wire</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">L2=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y=</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X=</t>
   </si>
   <si>
     <t xml:space="preserve">end</t>
@@ -104,9 +110,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -167,13 +174,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFF0"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
-        <bgColor rgb="FFFFCC00"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFF0"/>
       </patternFill>
     </fill>
     <fill>
@@ -189,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -230,6 +237,13 @@
       <right style="hair"/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -279,7 +293,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,7 +358,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -356,15 +370,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -396,7 +414,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFF0"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -413,7 +431,7 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFF0"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -439,7 +457,7 @@
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFFA500"/>
+      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF696969"/>
       <rgbColor rgb="FF969696"/>
@@ -1226,6 +1244,43 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>270360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351360</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5654520" y="849240"/>
+          <a:ext cx="4412880" cy="3309480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1369,7 +1424,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2161,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="16" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="17" t="s">
@@ -2203,8 +2258,8 @@
         <v>6</v>
       </c>
       <c r="C25" s="18" t="n">
-        <f aca="false">+(F25-C24*F24*F24)/F24</f>
-        <v>-99</v>
+        <f aca="false">+(C24*F24*F24-F25)/F24</f>
+        <v>4</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="17" t="s">
@@ -2274,12 +2329,29 @@
       <c r="A27" s="4" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="B27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="19" t="n">
+        <f aca="false">+$C$24*C28*C28+$C$25*C28</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="19" t="n">
+        <f aca="false">+$C$24*D28*D28+$C$25*D28</f>
+        <v>-68.75</v>
+      </c>
+      <c r="E27" s="19" t="n">
+        <f aca="false">+$C$24*E28*E28+$C$25*E28</f>
+        <v>-75</v>
+      </c>
+      <c r="F27" s="19" t="n">
+        <f aca="false">+$C$24*F28*F28+$C$25*F28</f>
+        <v>-18.75</v>
+      </c>
+      <c r="G27" s="19" t="n">
+        <f aca="false">+$C$24*G28*G28+$C$25*G28</f>
+        <v>100</v>
+      </c>
       <c r="H27" s="10"/>
       <c r="I27" s="4" t="n">
         <v>26</v>
@@ -2306,12 +2378,24 @@
       <c r="A28" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="B28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" t="n">
+        <v>-25</v>
+      </c>
+      <c r="E28" s="19" t="n">
+        <v>-50</v>
+      </c>
+      <c r="F28" s="19" t="n">
+        <v>-75</v>
+      </c>
+      <c r="G28" s="19" t="n">
+        <v>-100</v>
+      </c>
       <c r="H28" s="10"/>
       <c r="I28" s="4" t="n">
         <v>27</v>
@@ -2722,44 +2806,44 @@
       <c r="A41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21" t="s">
-        <v>8</v>
+      <c r="B41" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="J41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="21" t="s">
-        <v>8</v>
+      <c r="J41" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22" t="s">
+        <v>10</v>
       </c>
       <c r="Q41" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="R41" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="21" t="s">
-        <v>8</v>
+      <c r="R41" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="22" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2790,88 +2874,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="22" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="22" width="25.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="22" width="97.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="22" width="1.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="22" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="22" width="1.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="22" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="22" width="1.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="22" width="57.8"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="22" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="25.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="97.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="23" width="1.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="23" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="23" width="1.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="23" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="23" width="1.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="23" width="57.8"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="23" width="11.52"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="23" t="s">
-        <v>9</v>
+      <c r="B3" s="24" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="str">
         <f aca="false">+I3&amp;"/"&amp;G3&amp;E3</f>
         <v>c:\Schneider\ScriptingPath\CALC\/BeadOnWire_OoCalc.vbs</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="23" t="s">
-        <v>12</v>
+      <c r="B5" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="str">
         <f aca="false">+I5&amp;"/"&amp;G5&amp;"/"&amp;E5</f>
         <v>file:///C:/Users/sesa237770/Documents/Mathbox/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.ods</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="23" t="s">
-        <v>16</v>
+      <c r="B7" s="24" t="s">
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="str">
         <f aca="false">+I7&amp;"/"&amp;G7&amp;"/"&amp;E7</f>
         <v>file:///C:/Users/sesa237770/Documents/Mathbox/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="23"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="23" t="s">
-        <v>18</v>
+      <c r="B9" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="str">
         <f aca="false">+I9&amp;"/"&amp;G9&amp;"/"&amp;E9</f>
         <v>file:///C:/Users/sesa237770/Documents/Mathbox/Python_Samples/02-BeadOnWire/math_bead_on_wire.py</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2903,12 +2987,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="25" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="26" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0"/>
     </row>

--- a/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
+++ b/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t xml:space="preserve">Bead on Wire</t>
   </si>
@@ -1281,6 +1281,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>168120</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>156960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>801000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Shape 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11752920" y="2680200"/>
+          <a:ext cx="1449360" cy="489600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="d2691e"/>
+        </a:solidFill>
+        <a:ln w="0">
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -1424,7 +1468,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2216,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="17" t="s">
@@ -2259,7 +2303,7 @@
       </c>
       <c r="C25" s="18" t="n">
         <f aca="false">+(C24*F24*F24-F25)/F24</f>
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="17" t="s">
@@ -2338,15 +2382,15 @@
       </c>
       <c r="D27" s="19" t="n">
         <f aca="false">+$C$24*D28*D28+$C$25*D28</f>
-        <v>-68.75</v>
+        <v>25</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">+$C$24*E28*E28+$C$25*E28</f>
-        <v>-75</v>
+        <v>50</v>
       </c>
       <c r="F27" s="19" t="n">
         <f aca="false">+$C$24*F28*F28+$C$25*F28</f>
-        <v>-18.75</v>
+        <v>75</v>
       </c>
       <c r="G27" s="19" t="n">
         <f aca="false">+$C$24*G28*G28+$C$25*G28</f>
@@ -2454,8 +2498,12 @@
       <c r="A30" s="4" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
+      <c r="B30" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="16" t="n">
+        <v>0.025</v>
+      </c>
       <c r="D30" s="14"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2487,7 +2535,9 @@
         <v>30</v>
       </c>
       <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="16" t="n">
+        <v>0.04</v>
+      </c>
       <c r="D31" s="14"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2519,7 +2569,9 @@
         <v>31</v>
       </c>
       <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" s="14"/>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2551,7 +2603,9 @@
         <v>32</v>
       </c>
       <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="16" t="n">
+        <v>0.025</v>
+      </c>
       <c r="D33" s="14"/>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2583,7 +2637,9 @@
         <v>33</v>
       </c>
       <c r="B34" s="8"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="16" t="n">
+        <v>0.025</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2615,7 +2671,9 @@
         <v>34</v>
       </c>
       <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="16" t="n">
+        <v>0.025</v>
+      </c>
       <c r="D35" s="14"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2647,7 +2705,9 @@
         <v>35</v>
       </c>
       <c r="B36" s="8"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="16" t="n">
+        <v>0.025</v>
+      </c>
       <c r="D36" s="14"/>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2847,6 +2907,12 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C24" type="list">
+      <formula1>math!$C$30:$C$36</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.341666666666667" right="0.454861111111111" top="0.548611111111111" bottom="0.419444444444444" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="119" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
+++ b/Python_Samples/02-BeadOnWire/BeadOnWire_OoCalc.xlsx
@@ -1284,15 +1284,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:colOff>198000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>801000</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>88200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>648360</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1301,19 +1301,153 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11752920" y="2680200"/>
-          <a:ext cx="1449360" cy="489600"/>
+          <a:off x="11782800" y="2934720"/>
+          <a:ext cx="450360" cy="450360"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="d2691e"/>
+          <a:srgbClr val="ffffff"/>
         </a:solidFill>
-        <a:ln w="0">
+        <a:ln w="36000">
           <a:solidFill>
-            <a:srgbClr val="3465a4"/>
+            <a:srgbClr val="000000"/>
           </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>599400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>232920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Shape 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13000680" y="2905200"/>
+          <a:ext cx="450360" cy="450360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>128520</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>578880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Shape 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14163120" y="2925000"/>
+          <a:ext cx="450360" cy="450360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>94680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Line 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11723040" y="3130560"/>
+          <a:ext cx="3222360" cy="19440"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1468,7 +1602,7 @@
   <dimension ref="A1:X41"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
+      <selection pane="topLeft" activeCell="V20" activeCellId="0" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
